--- a/AutoRepository/configuration/FileCopy.xlsx
+++ b/AutoRepository/configuration/FileCopy.xlsx
@@ -28,10 +28,10 @@
     <t xml:space="preserve">Destination</t>
   </si>
   <si>
-    <t xml:space="preserve">../chimpProject/AutoRepository/template/HeaderLinks.xlsx</t>
+    <t xml:space="preserve">AutoRepository/template/HeaderLinks.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">../chimpProject/AutoRepository/database/</t>
+    <t xml:space="preserve">AutoRepository/database/</t>
   </si>
 </sst>
 </file>
@@ -131,14 +131,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.4132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
